--- a/Tableau compètence Lohan.xlsx
+++ b/Tableau compètence Lohan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lohaninho\Documents\Dossier Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lohaninho\Documents\PortFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEDB65E-5692-48B6-A341-F7893128D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289068B-86F9-48BE-8DD6-68571E99739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Montée en compétences sur Symfony et outils de développement professionnels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -205,14 +211,45 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -618,11 +655,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -648,40 +686,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,15 +701,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -708,15 +743,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -732,39 +758,61 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1072,8 +1120,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1086,83 +1134,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="22"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="13" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1186,11 +1234,11 @@
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1202,7 +1250,7 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1242,16 +1290,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1289,14 +1337,14 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1334,14 +1382,14 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1379,14 +1427,14 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1424,14 +1472,14 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1469,14 +1517,14 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1514,14 +1562,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1559,14 +1607,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1604,14 +1652,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1649,14 +1697,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1694,14 +1742,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1739,16 +1787,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1786,16 +1834,22 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="17"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="39"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1833,16 +1887,20 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="39"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1880,16 +1938,18 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="46"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="44"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1927,16 +1987,16 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="17"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="39"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1974,15 +2034,16 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="46"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="44"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2020,14 +2081,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2065,14 +2126,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2110,16 +2171,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2157,14 +2218,14 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2202,14 +2263,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2247,14 +2308,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2292,14 +2353,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2337,14 +2398,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2382,14 +2443,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2427,14 +2488,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2564,11 +2625,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2576,11 +2632,24 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D20" r:id="rId1" location="stage1-incidents-evolution" xr:uid="{1D901E7B-3D80-4473-9B9A-249B621735DE}"/>
+    <hyperlink ref="E20" r:id="rId2" location="stage1-presence-en-ligne" xr:uid="{38A1D1A9-C9A1-4D14-8F43-EF3DF7596216}"/>
+    <hyperlink ref="G20" r:id="rId3" location="stage1-disposition-service" xr:uid="{2753D5EC-6F7F-41EB-80BE-B84F71A7DF00}"/>
+    <hyperlink ref="D21" r:id="rId4" location="stage1-incidents-evolution2" xr:uid="{618364EE-F2B1-425E-84AC-60056250579F}"/>
+    <hyperlink ref="G21" r:id="rId5" location="stage1-disposition-service2" xr:uid="{30BD59F8-C79B-42AE-BF40-8EBD8D4DD677}"/>
+    <hyperlink ref="F22" r:id="rId6" location="stage1-travail-collectif" xr:uid="{CD9E0D08-39FC-4FFD-8619-05290AA05CC7}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId7"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Tableau compètence Lohan.xlsx
+++ b/Tableau compètence Lohan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lohaninho\Documents\PortFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289068B-86F9-48BE-8DD6-68571E99739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC28A90-679D-4F4F-BE15-CEF8F4447DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -140,10 +140,10 @@
     <t>Montée en compétences sur Symfony et outils de développement professionnels</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>███████████████</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ███████████████</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -253,6 +253,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -660,7 +667,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -758,12 +765,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -788,12 +789,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +802,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,8 +1121,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1337,14 +1338,14 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1382,14 +1383,14 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1427,14 +1428,14 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1472,14 +1473,14 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1517,14 +1518,14 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1562,14 +1563,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1607,14 +1608,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1652,14 +1653,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1697,14 +1698,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1742,14 +1743,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1787,16 +1788,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1834,22 +1835,22 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="36"/>
+      <c r="G20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="37"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1887,20 +1888,20 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="39"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="37"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1938,18 +1939,20 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="33" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="44"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="47" t="s">
+        <v>33</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1987,16 +1990,20 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="39"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="37"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2034,16 +2041,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="44"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="47" t="s">
+        <v>33</v>
+      </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2081,14 +2090,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2126,14 +2135,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2171,16 +2180,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2218,14 +2227,14 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2263,14 +2272,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2308,14 +2317,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2353,14 +2362,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2398,14 +2407,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2443,14 +2452,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2488,14 +2497,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2646,10 +2655,14 @@
     <hyperlink ref="D21" r:id="rId4" location="stage1-incidents-evolution2" xr:uid="{618364EE-F2B1-425E-84AC-60056250579F}"/>
     <hyperlink ref="G21" r:id="rId5" location="stage1-disposition-service2" xr:uid="{30BD59F8-C79B-42AE-BF40-8EBD8D4DD677}"/>
     <hyperlink ref="F22" r:id="rId6" location="stage1-travail-collectif" xr:uid="{CD9E0D08-39FC-4FFD-8619-05290AA05CC7}"/>
+    <hyperlink ref="H22" r:id="rId7" location="stage1-organiser-developpement" xr:uid="{CB3B1945-60A7-43D1-9B6C-EA6AD0576EC9}"/>
+    <hyperlink ref="E23" r:id="rId8" location="stage1-presence-en-ligne2" xr:uid="{B32643D6-657D-493E-A06D-53B5FF61DFA7}"/>
+    <hyperlink ref="G23" r:id="rId9" location="stage1-disposition-service3" xr:uid="{510F2DF0-2340-4C37-AA9F-01B8FFB881EB}"/>
+    <hyperlink ref="H24" r:id="rId10" location="stage1-organiser-developpement2" xr:uid="{EB7E54B1-886A-4BAF-BA43-071E89C418B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId11"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>